--- a/players.xlsx
+++ b/players.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aflyn\repos\FantasyPlayerEvaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lu516e\source\repos\aflynn0213\FantasyPlayerEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3996E1B0-FF81-48D3-96C8-FB5AE5D59769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE6854-E5E0-4682-B445-DBD2DFAF3BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">players!$A$1:$AU$400</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="477">
   <si>
     <t>#</t>
   </si>
@@ -1459,6 +1459,9 @@
   </si>
   <si>
     <t>Cole Irvin</t>
+  </si>
+  <si>
+    <t>QS_1</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1992,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2011,8 +2017,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="48">
-    <queryTableFields count="47">
+  <queryTableRefresh nextId="49" unboundColumnsRight="1">
+    <queryTableFields count="48">
       <queryTableField id="1" name="#" tableColumnId="1"/>
       <queryTableField id="2" name="Name" tableColumnId="2"/>
       <queryTableField id="3" name="Team" tableColumnId="3"/>
@@ -2060,18 +2066,19 @@
       <queryTableField id="45" name="FIP" tableColumnId="45"/>
       <queryTableField id="46" name="ADP" tableColumnId="46"/>
       <queryTableField id="47" name="SV+H" tableColumnId="47"/>
+      <queryTableField id="48" dataBound="0" tableColumnId="48"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_players" displayName="Table_players" ref="A1:AU400" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:AU400" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_players" displayName="Table_players" ref="A1:AV400" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:AV400" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="48">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="#" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Name" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Team" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Name" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Team" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="G" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="PA" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="HR" queryTableFieldId="6"/>
@@ -2116,6 +2123,9 @@
     <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="FIP" queryTableFieldId="45"/>
     <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="ADP" queryTableFieldId="46"/>
     <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="SV+H" queryTableFieldId="47"/>
+    <tableColumn id="48" xr3:uid="{68607C46-5917-4AA2-9441-CC8AD695506C}" uniqueName="48" name="QS_1" queryTableFieldId="48" dataDxfId="0">
+      <calculatedColumnFormula>IF(AB2&lt;1,"",AB2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2418,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU400"/>
+  <dimension ref="A1:AV400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R46" workbookViewId="0">
-      <selection activeCell="AC48" sqref="AC48"/>
+    <sheetView tabSelected="1" topLeftCell="O367" workbookViewId="0">
+      <selection activeCell="AL395" sqref="AL395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,7 +2462,7 @@
     <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" customWidth="1"/>
     <col min="29" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -2473,7 +2483,7 @@
     <col min="47" max="47" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2615,8 +2625,11 @@
       <c r="AU1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2683,11 +2696,16 @@
       <c r="V2">
         <v>4.5</v>
       </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU2" t="str">
+        <f>IF(AND(ISBLANK(AC2),ISBLANK(AD2)),"",SUM(AC2,AD2))</f>
+        <v/>
+      </c>
+      <c r="AV2" t="str">
+        <f t="shared" ref="AV2:AV65" si="0">IF(AB2&lt;1,"",AB2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2754,11 +2772,16 @@
       <c r="V3">
         <v>4.3</v>
       </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU3" t="str">
+        <f t="shared" ref="AU3:AU66" si="1">IF(AND(ISBLANK(AC3),ISBLANK(AD3)),"",SUM(AC3,AD3))</f>
+        <v/>
+      </c>
+      <c r="AV3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2825,11 +2848,16 @@
       <c r="V4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2896,11 +2924,16 @@
       <c r="V5">
         <v>4</v>
       </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2967,11 +3000,16 @@
       <c r="V6">
         <v>4</v>
       </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3038,11 +3076,16 @@
       <c r="V7">
         <v>3.9</v>
       </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3109,11 +3152,16 @@
       <c r="V8">
         <v>3.8</v>
       </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3180,11 +3228,16 @@
       <c r="V9">
         <v>3.7</v>
       </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3251,11 +3304,16 @@
       <c r="V10">
         <v>3.4</v>
       </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3322,11 +3380,16 @@
       <c r="V11">
         <v>3.4</v>
       </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3393,11 +3456,16 @@
       <c r="V12">
         <v>3.4</v>
       </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3464,11 +3532,16 @@
       <c r="V13">
         <v>3.3</v>
       </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3535,11 +3608,16 @@
       <c r="V14">
         <v>3.3</v>
       </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3606,11 +3684,16 @@
       <c r="V15">
         <v>3.2</v>
       </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3677,11 +3760,16 @@
       <c r="V16">
         <v>3.2</v>
       </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3748,11 +3836,16 @@
       <c r="V17">
         <v>3.2</v>
       </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3819,11 +3912,16 @@
       <c r="V18">
         <v>3.2</v>
       </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3890,11 +3988,16 @@
       <c r="V19">
         <v>3.1</v>
       </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3961,11 +4064,16 @@
       <c r="V20">
         <v>3.1</v>
       </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4032,11 +4140,16 @@
       <c r="V21">
         <v>3.1</v>
       </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4103,11 +4216,16 @@
       <c r="V22">
         <v>3.1</v>
       </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4174,11 +4292,16 @@
       <c r="V23">
         <v>3</v>
       </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4245,11 +4368,16 @@
       <c r="V24">
         <v>3</v>
       </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4316,11 +4444,16 @@
       <c r="V25">
         <v>3</v>
       </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4387,11 +4520,16 @@
       <c r="V26">
         <v>3</v>
       </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4458,11 +4596,16 @@
       <c r="V27">
         <v>3</v>
       </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4529,11 +4672,16 @@
       <c r="V28">
         <v>3</v>
       </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4600,11 +4748,16 @@
       <c r="V29">
         <v>2.8</v>
       </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4671,11 +4824,16 @@
       <c r="V30">
         <v>2.8</v>
       </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4742,11 +4900,16 @@
       <c r="V31">
         <v>2.8</v>
       </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4813,11 +4976,16 @@
       <c r="V32">
         <v>2.8</v>
       </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4884,11 +5052,16 @@
       <c r="V33">
         <v>2.7</v>
       </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4955,11 +5128,16 @@
       <c r="V34">
         <v>2.7</v>
       </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5026,11 +5204,16 @@
       <c r="V35">
         <v>2.7</v>
       </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5097,11 +5280,16 @@
       <c r="V36">
         <v>2.6</v>
       </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5168,11 +5356,16 @@
       <c r="V37">
         <v>2.6</v>
       </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5239,11 +5432,16 @@
       <c r="V38">
         <v>2.6</v>
       </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5310,11 +5508,16 @@
       <c r="V39">
         <v>2.5</v>
       </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5381,11 +5584,16 @@
       <c r="V40">
         <v>2.5</v>
       </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5452,11 +5660,16 @@
       <c r="V41">
         <v>2.4</v>
       </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5523,11 +5736,16 @@
       <c r="V42">
         <v>2.4</v>
       </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5594,11 +5812,16 @@
       <c r="V43">
         <v>2.4</v>
       </c>
-      <c r="AU43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5665,11 +5888,16 @@
       <c r="V44">
         <v>2.4</v>
       </c>
-      <c r="AU44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5736,11 +5964,16 @@
       <c r="V45">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AU45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5807,11 +6040,16 @@
       <c r="V46">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5878,11 +6116,16 @@
       <c r="V47">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AU47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5949,11 +6192,16 @@
       <c r="V48">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6020,11 +6268,16 @@
       <c r="V49">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AU49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6091,11 +6344,16 @@
       <c r="V50">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AU50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6162,11 +6420,16 @@
       <c r="V51">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AU51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6233,11 +6496,16 @@
       <c r="V52">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AU52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6304,11 +6572,16 @@
       <c r="V53">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6375,11 +6648,16 @@
       <c r="V54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6446,11 +6724,16 @@
       <c r="V55">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6587,10 +6870,15 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AU56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6657,11 +6945,16 @@
       <c r="V57">
         <v>2.1</v>
       </c>
-      <c r="AU57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6728,11 +7021,16 @@
       <c r="V58">
         <v>2.1</v>
       </c>
-      <c r="AU58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6799,11 +7097,16 @@
       <c r="V59">
         <v>2.1</v>
       </c>
-      <c r="AU59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6870,11 +7173,16 @@
       <c r="V60">
         <v>2.1</v>
       </c>
-      <c r="AU60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6941,11 +7249,16 @@
       <c r="V61">
         <v>2.1</v>
       </c>
-      <c r="AU61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7012,11 +7325,16 @@
       <c r="V62">
         <v>2</v>
       </c>
-      <c r="AU62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7083,11 +7401,16 @@
       <c r="V63">
         <v>2</v>
       </c>
-      <c r="AU63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7154,11 +7477,16 @@
       <c r="V64">
         <v>2</v>
       </c>
-      <c r="AU64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7225,11 +7553,16 @@
       <c r="V65">
         <v>2</v>
       </c>
-      <c r="AU65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7296,11 +7629,16 @@
       <c r="V66">
         <v>2</v>
       </c>
-      <c r="AU66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV66" t="str">
+        <f t="shared" ref="AV66:AV129" si="2">IF(AB66&lt;1,"",AB66)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7367,11 +7705,16 @@
       <c r="V67">
         <v>1.9</v>
       </c>
-      <c r="AU67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU67" t="str">
+        <f t="shared" ref="AU67:AU130" si="3">IF(AND(ISBLANK(AC67),ISBLANK(AD67)),"",SUM(AC67,AD67))</f>
+        <v/>
+      </c>
+      <c r="AV67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7438,11 +7781,16 @@
       <c r="V68">
         <v>1.9</v>
       </c>
-      <c r="AU68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU68" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7509,11 +7857,16 @@
       <c r="V69">
         <v>1.9</v>
       </c>
-      <c r="AU69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7580,11 +7933,16 @@
       <c r="V70">
         <v>1.9</v>
       </c>
-      <c r="AU70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7651,11 +8009,16 @@
       <c r="V71">
         <v>1.9</v>
       </c>
-      <c r="AU71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7722,11 +8085,16 @@
       <c r="V72">
         <v>1.9</v>
       </c>
-      <c r="AU72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV72" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7793,11 +8161,16 @@
       <c r="V73">
         <v>1.9</v>
       </c>
-      <c r="AU73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7864,11 +8237,16 @@
       <c r="V74">
         <v>1.9</v>
       </c>
-      <c r="AU74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7935,11 +8313,16 @@
       <c r="V75">
         <v>1.9</v>
       </c>
-      <c r="AU75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8006,11 +8389,16 @@
       <c r="V76">
         <v>1.9</v>
       </c>
-      <c r="AU76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8077,11 +8465,16 @@
       <c r="V77">
         <v>1.9</v>
       </c>
-      <c r="AU77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV77" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8148,11 +8541,16 @@
       <c r="V78">
         <v>1.8</v>
       </c>
-      <c r="AU78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8219,11 +8617,16 @@
       <c r="V79">
         <v>1.8</v>
       </c>
-      <c r="AU79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV79" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8290,11 +8693,16 @@
       <c r="V80">
         <v>1.8</v>
       </c>
-      <c r="AU80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8361,11 +8769,16 @@
       <c r="V81">
         <v>1.8</v>
       </c>
-      <c r="AU81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8432,11 +8845,16 @@
       <c r="V82">
         <v>1.8</v>
       </c>
-      <c r="AU82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV82" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8503,11 +8921,16 @@
       <c r="V83">
         <v>1.8</v>
       </c>
-      <c r="AU83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV83" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8574,11 +8997,16 @@
       <c r="V84">
         <v>1.8</v>
       </c>
-      <c r="AU84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV84" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8645,11 +9073,16 @@
       <c r="V85">
         <v>1.8</v>
       </c>
-      <c r="AU85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV85" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8716,11 +9149,16 @@
       <c r="V86">
         <v>1.8</v>
       </c>
-      <c r="AU86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU86" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV86" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8787,11 +9225,16 @@
       <c r="V87">
         <v>1.7</v>
       </c>
-      <c r="AU87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8858,11 +9301,16 @@
       <c r="V88">
         <v>1.7</v>
       </c>
-      <c r="AU88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8929,11 +9377,16 @@
       <c r="V89">
         <v>1.7</v>
       </c>
-      <c r="AU89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV89" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9000,11 +9453,16 @@
       <c r="V90">
         <v>1.7</v>
       </c>
-      <c r="AU90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9071,11 +9529,16 @@
       <c r="V91">
         <v>1.7</v>
       </c>
-      <c r="AU91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU91" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9142,11 +9605,16 @@
       <c r="V92">
         <v>1.7</v>
       </c>
-      <c r="AU92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV92" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9213,11 +9681,16 @@
       <c r="V93">
         <v>1.6</v>
       </c>
-      <c r="AU93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV93" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9284,11 +9757,16 @@
       <c r="V94">
         <v>1.6</v>
       </c>
-      <c r="AU94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9355,11 +9833,16 @@
       <c r="V95">
         <v>1.6</v>
       </c>
-      <c r="AU95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV95" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9426,11 +9909,16 @@
       <c r="V96">
         <v>1.6</v>
       </c>
-      <c r="AU96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU96" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV96" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9497,11 +9985,16 @@
       <c r="V97">
         <v>1.6</v>
       </c>
-      <c r="AU97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU97" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV97" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9568,11 +10061,16 @@
       <c r="V98">
         <v>1.6</v>
       </c>
-      <c r="AU98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV98" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -9639,11 +10137,16 @@
       <c r="V99">
         <v>1.6</v>
       </c>
-      <c r="AU99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU99" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV99" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9710,11 +10213,16 @@
       <c r="V100">
         <v>1.6</v>
       </c>
-      <c r="AU100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU100" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV100" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9781,11 +10289,16 @@
       <c r="V101">
         <v>1.6</v>
       </c>
-      <c r="AU101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU101" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9852,11 +10365,16 @@
       <c r="V102">
         <v>1.6</v>
       </c>
-      <c r="AU102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU102" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV102" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9923,11 +10441,16 @@
       <c r="V103">
         <v>1.6</v>
       </c>
-      <c r="AU103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU103" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV103" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9994,11 +10517,16 @@
       <c r="V104">
         <v>1.6</v>
       </c>
-      <c r="AU104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU104" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV104" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10065,11 +10593,16 @@
       <c r="V105">
         <v>1.6</v>
       </c>
-      <c r="AU105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU105" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV105" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10136,11 +10669,16 @@
       <c r="V106">
         <v>1.5</v>
       </c>
-      <c r="AU106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU106" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV106" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10207,11 +10745,16 @@
       <c r="V107">
         <v>1.5</v>
       </c>
-      <c r="AU107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU107" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV107" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10278,11 +10821,16 @@
       <c r="V108">
         <v>1.5</v>
       </c>
-      <c r="AU108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU108" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV108" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10349,11 +10897,16 @@
       <c r="V109">
         <v>1.5</v>
       </c>
-      <c r="AU109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU109" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV109" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10420,11 +10973,16 @@
       <c r="V110">
         <v>1.5</v>
       </c>
-      <c r="AU110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU110" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV110" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -10491,11 +11049,16 @@
       <c r="V111">
         <v>1.5</v>
       </c>
-      <c r="AU111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU111" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV111" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -10562,11 +11125,16 @@
       <c r="V112">
         <v>1.5</v>
       </c>
-      <c r="AU112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU112" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV112" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -10633,11 +11201,16 @@
       <c r="V113">
         <v>1.5</v>
       </c>
-      <c r="AU113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -10704,11 +11277,16 @@
       <c r="V114">
         <v>1.5</v>
       </c>
-      <c r="AU114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU114" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV114" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -10775,11 +11353,16 @@
       <c r="V115">
         <v>1.4</v>
       </c>
-      <c r="AU115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU115" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV115" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -10846,11 +11429,16 @@
       <c r="V116">
         <v>1.4</v>
       </c>
-      <c r="AU116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU116" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV116" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -10917,11 +11505,16 @@
       <c r="V117">
         <v>1.4</v>
       </c>
-      <c r="AU117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU117" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV117" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -10988,11 +11581,16 @@
       <c r="V118">
         <v>1.4</v>
       </c>
-      <c r="AU118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU118" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV118" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11059,11 +11657,16 @@
       <c r="V119">
         <v>1.4</v>
       </c>
-      <c r="AU119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU119" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV119" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11130,11 +11733,16 @@
       <c r="V120">
         <v>1.4</v>
       </c>
-      <c r="AU120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU120" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV120" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11201,11 +11809,16 @@
       <c r="V121">
         <v>1.4</v>
       </c>
-      <c r="AU121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU121" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV121" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11272,11 +11885,16 @@
       <c r="V122">
         <v>1.4</v>
       </c>
-      <c r="AU122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU122" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11343,11 +11961,16 @@
       <c r="V123">
         <v>1.4</v>
       </c>
-      <c r="AU123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU123" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV123" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11414,11 +12037,16 @@
       <c r="V124">
         <v>1.4</v>
       </c>
-      <c r="AU124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU124" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV124" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11485,11 +12113,16 @@
       <c r="V125">
         <v>1.4</v>
       </c>
-      <c r="AU125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU125" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV125" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11556,11 +12189,16 @@
       <c r="V126">
         <v>1.4</v>
       </c>
-      <c r="AU126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU126" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV126" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11627,11 +12265,16 @@
       <c r="V127">
         <v>1.4</v>
       </c>
-      <c r="AU127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU127" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV127" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -11698,11 +12341,16 @@
       <c r="V128">
         <v>1.4</v>
       </c>
-      <c r="AU128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU128" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV128" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11769,11 +12417,16 @@
       <c r="V129">
         <v>1.3</v>
       </c>
-      <c r="AU129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU129" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV129" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11840,11 +12493,16 @@
       <c r="V130">
         <v>1.3</v>
       </c>
-      <c r="AU130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU130" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV130" t="str">
+        <f t="shared" ref="AV130:AV193" si="4">IF(AB130&lt;1,"",AB130)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -11911,11 +12569,16 @@
       <c r="V131">
         <v>1.3</v>
       </c>
-      <c r="AU131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU131" t="str">
+        <f t="shared" ref="AU131:AU194" si="5">IF(AND(ISBLANK(AC131),ISBLANK(AD131)),"",SUM(AC131,AD131))</f>
+        <v/>
+      </c>
+      <c r="AV131" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -11982,11 +12645,16 @@
       <c r="V132">
         <v>1.3</v>
       </c>
-      <c r="AU132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU132" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV132" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -12053,11 +12721,16 @@
       <c r="V133">
         <v>1.3</v>
       </c>
-      <c r="AU133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU133" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV133" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -12124,11 +12797,16 @@
       <c r="V134">
         <v>1.3</v>
       </c>
-      <c r="AU134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU134" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV134" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -12195,11 +12873,16 @@
       <c r="V135">
         <v>1.3</v>
       </c>
-      <c r="AU135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU135" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV135" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -12266,11 +12949,16 @@
       <c r="V136">
         <v>1.3</v>
       </c>
-      <c r="AU136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU136" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV136" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -12337,11 +13025,16 @@
       <c r="V137">
         <v>1.3</v>
       </c>
-      <c r="AU137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU137" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV137" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -12408,11 +13101,16 @@
       <c r="V138">
         <v>1.3</v>
       </c>
-      <c r="AU138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU138" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV138" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -12479,11 +13177,16 @@
       <c r="V139">
         <v>1.3</v>
       </c>
-      <c r="AU139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU139" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV139" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -12550,11 +13253,16 @@
       <c r="V140">
         <v>1.3</v>
       </c>
-      <c r="AU140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU140" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV140" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -12621,11 +13329,16 @@
       <c r="V141">
         <v>1.2</v>
       </c>
-      <c r="AU141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU141" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV141" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -12692,11 +13405,16 @@
       <c r="V142">
         <v>1.2</v>
       </c>
-      <c r="AU142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU142" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV142" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -12763,11 +13481,16 @@
       <c r="V143">
         <v>1.2</v>
       </c>
-      <c r="AU143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU143" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV143" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -12834,11 +13557,16 @@
       <c r="V144">
         <v>1.2</v>
       </c>
-      <c r="AU144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU144" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV144" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -12905,11 +13633,16 @@
       <c r="V145">
         <v>1.2</v>
       </c>
-      <c r="AU145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU145" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV145" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -12976,11 +13709,16 @@
       <c r="V146">
         <v>1.2</v>
       </c>
-      <c r="AU146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU146" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV146" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -13047,11 +13785,16 @@
       <c r="V147">
         <v>1.2</v>
       </c>
-      <c r="AU147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU147" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV147" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13118,11 +13861,16 @@
       <c r="V148">
         <v>1.2</v>
       </c>
-      <c r="AU148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU148" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV148" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13189,11 +13937,16 @@
       <c r="V149">
         <v>1.2</v>
       </c>
-      <c r="AU149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU149" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV149" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13260,11 +14013,16 @@
       <c r="V150">
         <v>1.2</v>
       </c>
-      <c r="AU150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU150" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV150" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13331,11 +14089,16 @@
       <c r="V151">
         <v>1.2</v>
       </c>
-      <c r="AU151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU151" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV151" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13402,11 +14165,16 @@
       <c r="V152">
         <v>1.2</v>
       </c>
-      <c r="AU152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU152" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV152" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13473,11 +14241,16 @@
       <c r="V153">
         <v>1.2</v>
       </c>
-      <c r="AU153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU153" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV153" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13544,11 +14317,16 @@
       <c r="V154">
         <v>1.2</v>
       </c>
-      <c r="AU154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU154" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV154" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13615,11 +14393,16 @@
       <c r="V155">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV155" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -13686,11 +14469,16 @@
       <c r="V156">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU156" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV156" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13757,11 +14545,16 @@
       <c r="V157">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU157" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV157" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -13828,11 +14621,16 @@
       <c r="V158">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU158" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV158" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -13899,11 +14697,16 @@
       <c r="V159">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU159" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV159" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -13970,11 +14773,16 @@
       <c r="V160">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU160" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -14041,11 +14849,16 @@
       <c r="V161">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU161" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV161" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -14112,11 +14925,16 @@
       <c r="V162">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU162" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV162" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -14183,11 +15001,16 @@
       <c r="V163">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU163" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV163" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -14254,11 +15077,16 @@
       <c r="V164">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU164" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV164" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -14325,11 +15153,16 @@
       <c r="V165">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU165" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV165" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14396,11 +15229,16 @@
       <c r="V166">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU166" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV166" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14467,11 +15305,16 @@
       <c r="V167">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU167" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV167" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14538,11 +15381,16 @@
       <c r="V168">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU168" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV168" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14609,11 +15457,16 @@
       <c r="V169">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU169" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV169" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -14680,11 +15533,16 @@
       <c r="V170">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU170" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV170" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -14751,11 +15609,16 @@
       <c r="V171">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AU171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU171" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV171" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -14822,11 +15685,16 @@
       <c r="V172">
         <v>1</v>
       </c>
-      <c r="AU172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV172" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -14893,11 +15761,16 @@
       <c r="V173">
         <v>1</v>
       </c>
-      <c r="AU173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU173" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV173" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14964,11 +15837,16 @@
       <c r="V174">
         <v>1</v>
       </c>
-      <c r="AU174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU174" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV174" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -15035,11 +15913,16 @@
       <c r="V175">
         <v>1</v>
       </c>
-      <c r="AU175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU175" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV175" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -15106,11 +15989,16 @@
       <c r="V176">
         <v>1</v>
       </c>
-      <c r="AU176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU176" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV176" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -15177,11 +16065,16 @@
       <c r="V177">
         <v>1</v>
       </c>
-      <c r="AU177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU177" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV177" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -15248,11 +16141,16 @@
       <c r="V178">
         <v>1</v>
       </c>
-      <c r="AU178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU178" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV178" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -15319,11 +16217,16 @@
       <c r="V179">
         <v>1</v>
       </c>
-      <c r="AU179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU179" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV179" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -15390,11 +16293,16 @@
       <c r="V180">
         <v>1</v>
       </c>
-      <c r="AU180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU180" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV180" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -15461,11 +16369,16 @@
       <c r="V181">
         <v>1</v>
       </c>
-      <c r="AU181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU181" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV181" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -15532,11 +16445,16 @@
       <c r="V182">
         <v>1</v>
       </c>
-      <c r="AU182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU182" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV182" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -15603,11 +16521,16 @@
       <c r="V183">
         <v>1</v>
       </c>
-      <c r="AU183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU183" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV183" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -15674,11 +16597,16 @@
       <c r="V184">
         <v>1</v>
       </c>
-      <c r="AU184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU184" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV184" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -15745,11 +16673,16 @@
       <c r="V185">
         <v>1</v>
       </c>
-      <c r="AU185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU185" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV185" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -15816,11 +16749,16 @@
       <c r="V186">
         <v>1</v>
       </c>
-      <c r="AU186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU186" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV186" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -15887,11 +16825,16 @@
       <c r="V187">
         <v>1</v>
       </c>
-      <c r="AU187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU187" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV187" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -15958,11 +16901,16 @@
       <c r="V188">
         <v>1</v>
       </c>
-      <c r="AU188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU188" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV188" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -16029,11 +16977,16 @@
       <c r="V189">
         <v>0.9</v>
       </c>
-      <c r="AU189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU189" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV189" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -16100,11 +17053,16 @@
       <c r="V190">
         <v>0.9</v>
       </c>
-      <c r="AU190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU190" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV190" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -16171,11 +17129,16 @@
       <c r="V191">
         <v>0.9</v>
       </c>
-      <c r="AU191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU191" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV191" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -16242,11 +17205,16 @@
       <c r="V192">
         <v>0.9</v>
       </c>
-      <c r="AU192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU192" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV192" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -16313,11 +17281,16 @@
       <c r="V193">
         <v>0.9</v>
       </c>
-      <c r="AU193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU193" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV193" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -16384,11 +17357,16 @@
       <c r="V194">
         <v>0.9</v>
       </c>
-      <c r="AU194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU194" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV194" t="str">
+        <f t="shared" ref="AV194:AV257" si="6">IF(AB194&lt;1,"",AB194)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -16455,11 +17433,16 @@
       <c r="V195">
         <v>0.9</v>
       </c>
-      <c r="AU195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU195" t="str">
+        <f t="shared" ref="AU195:AU258" si="7">IF(AND(ISBLANK(AC195),ISBLANK(AD195)),"",SUM(AC195,AD195))</f>
+        <v/>
+      </c>
+      <c r="AV195" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -16526,11 +17509,16 @@
       <c r="V196">
         <v>0.9</v>
       </c>
-      <c r="AU196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU196" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AV196" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -16597,11 +17585,16 @@
       <c r="V197">
         <v>0.9</v>
       </c>
-      <c r="AU197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU197" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AV197" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -16668,11 +17661,16 @@
       <c r="V198">
         <v>0.9</v>
       </c>
-      <c r="AU198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU198" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AV198" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -16739,11 +17737,16 @@
       <c r="V199">
         <v>0.9</v>
       </c>
-      <c r="AU199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU199" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AV199" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -16810,11 +17813,16 @@
       <c r="V200">
         <v>0.9</v>
       </c>
-      <c r="AU200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU200" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AV200" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -16881,11 +17889,16 @@
       <c r="V201">
         <v>0.9</v>
       </c>
-      <c r="AU201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU201" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AV201" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -16964,11 +17977,16 @@
       <c r="AT202">
         <v>76.099999999999994</v>
       </c>
-      <c r="AU202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU202" t="str">
+        <f>IF(SUM(AC202,AD202)&lt;1,"",SUM(AC202,AD202))</f>
+        <v/>
+      </c>
+      <c r="AV202">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -17047,11 +18065,16 @@
       <c r="AT203">
         <v>26.1</v>
       </c>
-      <c r="AU203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU203" t="str">
+        <f t="shared" ref="AU203:AU266" si="8">IF(SUM(AC203,AD203)&lt;1,"",SUM(AC203,AD203))</f>
+        <v/>
+      </c>
+      <c r="AV203">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -17130,11 +18153,16 @@
       <c r="AT204">
         <v>31.3</v>
       </c>
-      <c r="AU204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU204" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV204">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -17213,11 +18241,16 @@
       <c r="AT205">
         <v>58.4</v>
       </c>
-      <c r="AU205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU205" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV205">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -17296,11 +18329,16 @@
       <c r="AT206">
         <v>54.8</v>
       </c>
-      <c r="AU206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU206" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV206">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -17379,11 +18417,16 @@
       <c r="AT207">
         <v>39.9</v>
       </c>
-      <c r="AU207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU207" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV207">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -17462,11 +18505,16 @@
       <c r="AT208">
         <v>33.6</v>
       </c>
-      <c r="AU208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU208" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV208">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -17545,11 +18593,16 @@
       <c r="AT209">
         <v>15.9</v>
       </c>
-      <c r="AU209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU209" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV209">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -17628,11 +18681,16 @@
       <c r="AT210">
         <v>116.5</v>
       </c>
-      <c r="AU210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU210" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV210">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -17711,11 +18769,16 @@
       <c r="AT211">
         <v>131.6</v>
       </c>
-      <c r="AU211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU211" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV211">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -17794,11 +18857,16 @@
       <c r="AT212">
         <v>29.7</v>
       </c>
-      <c r="AU212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU212" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV212">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -17877,11 +18945,16 @@
       <c r="AT213">
         <v>72</v>
       </c>
-      <c r="AU213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU213" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV213">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -17960,11 +19033,16 @@
       <c r="AT214">
         <v>39.200000000000003</v>
       </c>
-      <c r="AU214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU214" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV214">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -18043,11 +19121,16 @@
       <c r="AT215">
         <v>16.3</v>
       </c>
-      <c r="AU215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU215" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV215">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18126,11 +19209,16 @@
       <c r="AT216">
         <v>58.7</v>
       </c>
-      <c r="AU216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU216" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV216">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18209,11 +19297,16 @@
       <c r="AT217">
         <v>109.5</v>
       </c>
-      <c r="AU217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU217" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV217">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18292,11 +19385,16 @@
       <c r="AT218">
         <v>147.80000000000001</v>
       </c>
-      <c r="AU218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU218" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV218">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -18375,11 +19473,16 @@
       <c r="AT219">
         <v>43</v>
       </c>
-      <c r="AU219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU219" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV219">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -18458,11 +19561,16 @@
       <c r="AT220">
         <v>106</v>
       </c>
-      <c r="AU220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU220" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV220">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -18541,11 +19649,16 @@
       <c r="AT221">
         <v>53.8</v>
       </c>
-      <c r="AU221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU221" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV221">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -18624,11 +19737,16 @@
       <c r="AT222">
         <v>239.3</v>
       </c>
-      <c r="AU222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU222" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV222">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -18707,11 +19825,16 @@
       <c r="AT223">
         <v>217.6</v>
       </c>
-      <c r="AU223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU223" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV223">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -18790,11 +19913,16 @@
       <c r="AT224">
         <v>164</v>
       </c>
-      <c r="AU224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU224" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV224">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -18873,11 +20001,16 @@
       <c r="AT225">
         <v>135.6</v>
       </c>
-      <c r="AU225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU225" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV225">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -18956,11 +20089,16 @@
       <c r="AT226">
         <v>129.80000000000001</v>
       </c>
-      <c r="AU226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU226" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV226">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -19039,11 +20177,16 @@
       <c r="AT227">
         <v>72.599999999999994</v>
       </c>
-      <c r="AU227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU227" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV227">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -19122,11 +20265,16 @@
       <c r="AT228">
         <v>209.3</v>
       </c>
-      <c r="AU228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU228" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV228">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -19205,11 +20353,16 @@
       <c r="AT229">
         <v>158.19999999999999</v>
       </c>
-      <c r="AU229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU229" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV229">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -19288,11 +20441,16 @@
       <c r="AT230">
         <v>98.5</v>
       </c>
-      <c r="AU230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU230" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV230">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -19371,11 +20529,16 @@
       <c r="AT231">
         <v>317.39999999999998</v>
       </c>
-      <c r="AU231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU231" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV231">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -19454,11 +20617,16 @@
       <c r="AT232">
         <v>93.8</v>
       </c>
-      <c r="AU232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU232" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV232">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -19537,11 +20705,16 @@
       <c r="AT233">
         <v>108</v>
       </c>
-      <c r="AU233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU233" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV233">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -19620,11 +20793,16 @@
       <c r="AT234">
         <v>167.7</v>
       </c>
-      <c r="AU234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU234" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV234">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -19703,11 +20881,16 @@
       <c r="AT235">
         <v>48.1</v>
       </c>
-      <c r="AU235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU235" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV235">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -19786,11 +20969,16 @@
       <c r="AT236">
         <v>209.2</v>
       </c>
-      <c r="AU236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU236" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV236">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -19869,11 +21057,16 @@
       <c r="AT237">
         <v>180.5</v>
       </c>
-      <c r="AU237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU237" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV237">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -19952,11 +21145,16 @@
       <c r="AT238">
         <v>107.3</v>
       </c>
-      <c r="AU238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU238" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV238">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -20035,11 +21233,16 @@
       <c r="AT239">
         <v>244.1</v>
       </c>
-      <c r="AU239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU239" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV239">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -20118,11 +21321,16 @@
       <c r="AT240">
         <v>345.8</v>
       </c>
-      <c r="AU240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU240" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV240">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -20201,11 +21409,16 @@
       <c r="AT241">
         <v>261.8</v>
       </c>
-      <c r="AU241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU241" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV241">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -20284,11 +21497,16 @@
       <c r="AT242">
         <v>481.3</v>
       </c>
-      <c r="AU242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU242" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV242">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -20367,11 +21585,16 @@
       <c r="AT243">
         <v>182.1</v>
       </c>
-      <c r="AU243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU243" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV243">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -20450,11 +21673,16 @@
       <c r="AT244">
         <v>120.6</v>
       </c>
-      <c r="AU244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU244" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV244">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -20533,11 +21761,16 @@
       <c r="AT245">
         <v>144</v>
       </c>
-      <c r="AU245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU245" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV245">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -20616,11 +21849,16 @@
       <c r="AT246">
         <v>140.80000000000001</v>
       </c>
-      <c r="AU246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU246" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV246">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -20699,11 +21937,16 @@
       <c r="AT247">
         <v>66.099999999999994</v>
       </c>
-      <c r="AU247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU247" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV247">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -20782,11 +22025,16 @@
       <c r="AT248">
         <v>271.89999999999998</v>
       </c>
-      <c r="AU248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU248" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV248">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -20865,11 +22113,16 @@
       <c r="AT249">
         <v>53.2</v>
       </c>
-      <c r="AU249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU249" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV249">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -20948,11 +22201,16 @@
       <c r="AT250">
         <v>143.4</v>
       </c>
-      <c r="AU250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU250" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV250">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -21031,11 +22289,16 @@
       <c r="AT251">
         <v>58.3</v>
       </c>
-      <c r="AU251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU251" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV251">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -21114,11 +22377,16 @@
       <c r="AT252">
         <v>241.1</v>
       </c>
-      <c r="AU252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU252" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV252">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -21197,11 +22465,16 @@
       <c r="AT253">
         <v>35</v>
       </c>
-      <c r="AU253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU253" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV253">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -21280,11 +22553,16 @@
       <c r="AT254">
         <v>178.9</v>
       </c>
-      <c r="AU254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU254" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV254">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -21363,11 +22641,16 @@
       <c r="AT255">
         <v>220.1</v>
       </c>
-      <c r="AU255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU255" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV255">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -21446,11 +22729,16 @@
       <c r="AT256">
         <v>292.60000000000002</v>
       </c>
-      <c r="AU256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU256" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV256">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -21529,11 +22817,16 @@
       <c r="AT257">
         <v>354.7</v>
       </c>
-      <c r="AU257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU257" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV257">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -21612,11 +22905,16 @@
       <c r="AT258">
         <v>120.4</v>
       </c>
-      <c r="AU258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU258" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV258">
+        <f t="shared" ref="AV258:AV321" si="9">IF(AB258&lt;1,"",AB258)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -21695,11 +22993,16 @@
       <c r="AT259">
         <v>364.3</v>
       </c>
-      <c r="AU259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU259" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV259">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -21778,11 +23081,16 @@
       <c r="AT260">
         <v>434.1</v>
       </c>
-      <c r="AU260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU260" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV260">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -21861,11 +23169,16 @@
       <c r="AT261">
         <v>229.2</v>
       </c>
-      <c r="AU261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU261" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV261">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -21944,11 +23257,16 @@
       <c r="AT262">
         <v>165.2</v>
       </c>
-      <c r="AU262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU262" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV262">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -22027,11 +23345,16 @@
       <c r="AT263">
         <v>66.2</v>
       </c>
-      <c r="AU263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU263" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV263">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -22110,11 +23433,16 @@
       <c r="AT264">
         <v>202.7</v>
       </c>
-      <c r="AU264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU264" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV264">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -22193,11 +23521,16 @@
       <c r="AT265">
         <v>202.7</v>
       </c>
-      <c r="AU265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU265" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV265">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -22276,11 +23609,16 @@
       <c r="AT266">
         <v>344</v>
       </c>
-      <c r="AU266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU266" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV266">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -22359,11 +23697,16 @@
       <c r="AT267">
         <v>390.6</v>
       </c>
-      <c r="AU267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU267" t="str">
+        <f t="shared" ref="AU267:AU330" si="10">IF(SUM(AC267,AD267)&lt;1,"",SUM(AC267,AD267))</f>
+        <v/>
+      </c>
+      <c r="AV267">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -22442,11 +23785,16 @@
       <c r="AT268">
         <v>389</v>
       </c>
-      <c r="AU268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU268" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV268">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -22525,11 +23873,16 @@
       <c r="AT269">
         <v>131.9</v>
       </c>
-      <c r="AU269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU269" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV269">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -22608,11 +23961,16 @@
       <c r="AT270">
         <v>586</v>
       </c>
-      <c r="AU270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU270" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV270">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -22691,11 +24049,16 @@
       <c r="AT271">
         <v>624.9</v>
       </c>
-      <c r="AU271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU271" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV271">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -22774,11 +24137,16 @@
       <c r="AT272">
         <v>999</v>
       </c>
-      <c r="AU272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU272" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV272">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -22857,11 +24225,16 @@
       <c r="AT273">
         <v>218.7</v>
       </c>
-      <c r="AU273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU273" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV273">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -22940,11 +24313,16 @@
       <c r="AT274">
         <v>286.3</v>
       </c>
-      <c r="AU274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU274" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV274">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -23023,11 +24401,16 @@
       <c r="AT275">
         <v>647.29999999999995</v>
       </c>
-      <c r="AU275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU275" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV275">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -23106,11 +24489,16 @@
       <c r="AT276">
         <v>318.10000000000002</v>
       </c>
-      <c r="AU276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU276" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV276">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -23189,11 +24577,16 @@
       <c r="AT277">
         <v>67.5</v>
       </c>
-      <c r="AU277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU277" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV277">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -23272,11 +24665,16 @@
       <c r="AT278">
         <v>298.60000000000002</v>
       </c>
-      <c r="AU278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU278" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV278">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -23355,11 +24753,16 @@
       <c r="AT279">
         <v>318.2</v>
       </c>
-      <c r="AU279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU279" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV279">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -23438,11 +24841,16 @@
       <c r="AT280">
         <v>244.1</v>
       </c>
-      <c r="AU280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU280" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV280">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -23521,11 +24929,16 @@
       <c r="AT281">
         <v>561.5</v>
       </c>
-      <c r="AU281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU281" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV281">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -23604,11 +25017,16 @@
       <c r="AT282">
         <v>443.5</v>
       </c>
-      <c r="AU282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU282" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV282">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -23687,11 +25105,16 @@
       <c r="AT283">
         <v>431</v>
       </c>
-      <c r="AU283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU283" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV283">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -23770,11 +25193,16 @@
       <c r="AT284">
         <v>338.6</v>
       </c>
-      <c r="AU284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU284" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV284">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -23853,11 +25281,16 @@
       <c r="AT285">
         <v>212.6</v>
       </c>
-      <c r="AU285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU285" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV285">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -23936,11 +25369,16 @@
       <c r="AT286">
         <v>309.2</v>
       </c>
-      <c r="AU286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU286" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV286">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -24019,11 +25457,16 @@
       <c r="AT287">
         <v>330.1</v>
       </c>
-      <c r="AU287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU287" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV287">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -24102,11 +25545,16 @@
       <c r="AT288">
         <v>373.7</v>
       </c>
-      <c r="AU288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU288" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV288">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -24185,11 +25633,16 @@
       <c r="AT289">
         <v>102.1</v>
       </c>
-      <c r="AU289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU289" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV289">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -24268,11 +25721,16 @@
       <c r="AT290">
         <v>317.60000000000002</v>
       </c>
-      <c r="AU290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU290" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV290">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -24351,11 +25809,16 @@
       <c r="AT291">
         <v>602.6</v>
       </c>
-      <c r="AU291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU291" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV291">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -24434,11 +25897,16 @@
       <c r="AT292">
         <v>379.8</v>
       </c>
-      <c r="AU292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU292" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV292">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -24517,11 +25985,16 @@
       <c r="AT293">
         <v>616.5</v>
       </c>
-      <c r="AU293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU293" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV293">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -24600,11 +26073,16 @@
       <c r="AT294">
         <v>443.5</v>
       </c>
-      <c r="AU294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU294" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV294">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -24683,11 +26161,16 @@
       <c r="AT295">
         <v>745.3</v>
       </c>
-      <c r="AU295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU295" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV295">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -24766,11 +26249,16 @@
       <c r="AT296">
         <v>371.1</v>
       </c>
-      <c r="AU296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU296" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV296">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -24849,11 +26337,16 @@
       <c r="AT297">
         <v>556.29999999999995</v>
       </c>
-      <c r="AU297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU297" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV297">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -24932,11 +26425,16 @@
       <c r="AT298">
         <v>744.7</v>
       </c>
-      <c r="AU298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU298" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV298">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -25015,11 +26513,16 @@
       <c r="AT299">
         <v>318.60000000000002</v>
       </c>
-      <c r="AU299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU299" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV299">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -25098,11 +26601,16 @@
       <c r="AT300">
         <v>299.7</v>
       </c>
-      <c r="AU300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU300" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV300">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -25181,11 +26689,16 @@
       <c r="AT301">
         <v>999</v>
       </c>
-      <c r="AU301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU301" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV301">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -25264,11 +26777,16 @@
       <c r="AT302">
         <v>281.89999999999998</v>
       </c>
-      <c r="AU302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU302" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV302">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -25347,11 +26865,16 @@
       <c r="AT303">
         <v>999</v>
       </c>
-      <c r="AU303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU303" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV303">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -25430,11 +26953,16 @@
       <c r="AT304">
         <v>340.8</v>
       </c>
-      <c r="AU304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU304" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV304">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -25513,11 +27041,16 @@
       <c r="AT305">
         <v>607.79999999999995</v>
       </c>
-      <c r="AU305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU305" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV305">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -25596,11 +27129,16 @@
       <c r="AT306">
         <v>227.3</v>
       </c>
-      <c r="AU306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU306" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV306">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -25680,10 +27218,15 @@
         <v>116.4</v>
       </c>
       <c r="AU307">
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="308" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV307" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -25762,11 +27305,16 @@
       <c r="AT308">
         <v>637.6</v>
       </c>
-      <c r="AU308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU308" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV308">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -25845,11 +27393,16 @@
       <c r="AT309">
         <v>494.4</v>
       </c>
-      <c r="AU309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU309" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV309">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -25928,11 +27481,16 @@
       <c r="AT310">
         <v>535.4</v>
       </c>
-      <c r="AU310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU310" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV310">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -26011,11 +27569,16 @@
       <c r="AT311">
         <v>675.5</v>
       </c>
-      <c r="AU311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU311" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV311">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -26094,11 +27657,16 @@
       <c r="AT312">
         <v>716.9</v>
       </c>
-      <c r="AU312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU312" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV312">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -26177,11 +27745,16 @@
       <c r="AT313">
         <v>614.70000000000005</v>
       </c>
-      <c r="AU313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU313" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV313">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -26260,11 +27833,16 @@
       <c r="AT314">
         <v>487.3</v>
       </c>
-      <c r="AU314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU314" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV314">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -26343,11 +27921,16 @@
       <c r="AT315">
         <v>462.5</v>
       </c>
-      <c r="AU315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU315" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV315">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -26426,11 +28009,16 @@
       <c r="AT316">
         <v>438.5</v>
       </c>
-      <c r="AU316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU316" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV316">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -26509,11 +28097,16 @@
       <c r="AT317">
         <v>999</v>
       </c>
-      <c r="AU317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU317" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV317">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -26592,11 +28185,16 @@
       <c r="AT318">
         <v>232.5</v>
       </c>
-      <c r="AU318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU318" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV318">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -26675,11 +28273,16 @@
       <c r="AT319">
         <v>289.7</v>
       </c>
-      <c r="AU319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU319" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV319">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -26758,11 +28361,16 @@
       <c r="AT320">
         <v>153.19999999999999</v>
       </c>
-      <c r="AU320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU320" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV320">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -26841,11 +28449,16 @@
       <c r="AT321">
         <v>383.7</v>
       </c>
-      <c r="AU321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU321" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV321">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -26924,11 +28537,16 @@
       <c r="AT322">
         <v>558</v>
       </c>
-      <c r="AU322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU322" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV322">
+        <f t="shared" ref="AV322:AV385" si="11">IF(AB322&lt;1,"",AB322)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -27007,11 +28625,16 @@
       <c r="AT323">
         <v>492.9</v>
       </c>
-      <c r="AU323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU323" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV323">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -27090,11 +28713,16 @@
       <c r="AT324">
         <v>274.89999999999998</v>
       </c>
-      <c r="AU324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU324" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV324">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -27173,11 +28801,16 @@
       <c r="AT325">
         <v>593.70000000000005</v>
       </c>
-      <c r="AU325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU325" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV325">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -27256,11 +28889,16 @@
       <c r="AT326">
         <v>368.9</v>
       </c>
-      <c r="AU326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU326" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV326">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -27339,11 +28977,16 @@
       <c r="AT327">
         <v>999</v>
       </c>
-      <c r="AU327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU327" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV327">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -27422,11 +29065,16 @@
       <c r="AT328">
         <v>394.3</v>
       </c>
-      <c r="AU328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU328" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV328">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -27505,11 +29153,16 @@
       <c r="AT329">
         <v>558.4</v>
       </c>
-      <c r="AU329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU329" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV329">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -27588,11 +29241,16 @@
       <c r="AT330">
         <v>391.8</v>
       </c>
-      <c r="AU330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU330" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AV330">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -27671,11 +29329,16 @@
       <c r="AT331">
         <v>330.9</v>
       </c>
-      <c r="AU331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU331" t="str">
+        <f t="shared" ref="AU331:AU394" si="12">IF(SUM(AC331,AD331)&lt;1,"",SUM(AC331,AD331))</f>
+        <v/>
+      </c>
+      <c r="AV331">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -27754,11 +29417,16 @@
       <c r="AT332">
         <v>157.69999999999999</v>
       </c>
-      <c r="AU332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU332" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV332">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -27837,11 +29505,16 @@
       <c r="AT333">
         <v>429.5</v>
       </c>
-      <c r="AU333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU333" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV333">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -27920,11 +29593,16 @@
       <c r="AT334">
         <v>999</v>
       </c>
-      <c r="AU334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU334" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV334">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -28004,10 +29682,15 @@
         <v>69.400000000000006</v>
       </c>
       <c r="AU335">
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="336" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV335" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -28086,11 +29769,16 @@
       <c r="AT336">
         <v>298.5</v>
       </c>
-      <c r="AU336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU336" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV336">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -28169,11 +29857,16 @@
       <c r="AT337">
         <v>153.69999999999999</v>
       </c>
-      <c r="AU337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU337" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV337">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -28253,10 +29946,15 @@
         <v>38</v>
       </c>
       <c r="AU338">
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="339" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV338" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -28335,11 +30033,16 @@
       <c r="AT339">
         <v>318.5</v>
       </c>
-      <c r="AU339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU339" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV339">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -28418,11 +30121,16 @@
       <c r="AT340">
         <v>320.10000000000002</v>
       </c>
-      <c r="AU340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU340" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV340">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -28502,10 +30210,15 @@
         <v>63.9</v>
       </c>
       <c r="AU341">
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="342" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV341" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -28584,11 +30297,16 @@
       <c r="AT342">
         <v>389.1</v>
       </c>
-      <c r="AU342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU342" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV342">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -28667,11 +30385,16 @@
       <c r="AT343">
         <v>421.6</v>
       </c>
-      <c r="AU343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU343" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV343">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -28750,11 +30473,16 @@
       <c r="AT344">
         <v>731.9</v>
       </c>
-      <c r="AU344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU344" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV344">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -28833,11 +30561,16 @@
       <c r="AT345">
         <v>270.3</v>
       </c>
-      <c r="AU345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU345" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV345">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -28916,11 +30649,16 @@
       <c r="AT346">
         <v>999</v>
       </c>
-      <c r="AU346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU346" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV346">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -28999,11 +30737,16 @@
       <c r="AT347">
         <v>716.3</v>
       </c>
-      <c r="AU347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU347" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV347">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -29082,11 +30825,16 @@
       <c r="AT348">
         <v>398.9</v>
       </c>
-      <c r="AU348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU348" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV348">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -29165,11 +30913,16 @@
       <c r="AT349">
         <v>616.20000000000005</v>
       </c>
-      <c r="AU349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU349" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV349">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -29248,11 +31001,16 @@
       <c r="AT350">
         <v>435</v>
       </c>
-      <c r="AU350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU350" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV350">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -29331,11 +31089,16 @@
       <c r="AT351">
         <v>513</v>
       </c>
-      <c r="AU351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU351" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV351">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -29415,10 +31178,15 @@
         <v>99.8</v>
       </c>
       <c r="AU352">
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="353" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV352" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -29498,10 +31266,15 @@
         <v>481.6</v>
       </c>
       <c r="AU353">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="354" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV353" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -29581,10 +31354,15 @@
         <v>447.6</v>
       </c>
       <c r="AU354">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="355" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV354" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -29663,11 +31441,16 @@
       <c r="AT355">
         <v>586</v>
       </c>
-      <c r="AU355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU355" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV355">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -29746,11 +31529,16 @@
       <c r="AT356">
         <v>448.3</v>
       </c>
-      <c r="AU356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU356" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV356">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -29830,10 +31618,15 @@
         <v>28</v>
       </c>
       <c r="AU357">
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="358" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV357" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -29913,10 +31706,15 @@
         <v>334.4</v>
       </c>
       <c r="AU358">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="359" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV358" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -29995,11 +31793,16 @@
       <c r="AT359">
         <v>410.3</v>
       </c>
-      <c r="AU359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU359" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV359">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -30078,11 +31881,16 @@
       <c r="AT360">
         <v>605</v>
       </c>
-      <c r="AU360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU360" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV360">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -30161,11 +31969,16 @@
       <c r="AT361">
         <v>703</v>
       </c>
-      <c r="AU361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU361" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV361">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -30245,10 +32058,15 @@
         <v>726.6</v>
       </c>
       <c r="AU362">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="363" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV362" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -30328,10 +32146,15 @@
         <v>484.3</v>
       </c>
       <c r="AU363">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="364" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV363" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -30410,11 +32233,16 @@
       <c r="AT364">
         <v>999</v>
       </c>
-      <c r="AU364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU364" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV364">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -30494,10 +32322,15 @@
         <v>55.7</v>
       </c>
       <c r="AU365">
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="366" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV365" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -30576,11 +32409,16 @@
       <c r="AT366">
         <v>999</v>
       </c>
-      <c r="AU366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU366" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV366">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -30660,10 +32498,15 @@
         <v>51.3</v>
       </c>
       <c r="AU367">
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="368" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV367" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -30743,10 +32586,15 @@
         <v>393.5</v>
       </c>
       <c r="AU368">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="369" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV368" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -30825,11 +32673,16 @@
       <c r="AT369">
         <v>414.6</v>
       </c>
-      <c r="AU369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU369" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV369">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -30908,11 +32761,16 @@
       <c r="AT370">
         <v>624.79999999999995</v>
       </c>
-      <c r="AU370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU370" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV370">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -30991,11 +32849,16 @@
       <c r="AT371">
         <v>402.4</v>
       </c>
-      <c r="AU371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU371" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV371">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -31075,10 +32938,15 @@
         <v>491.7</v>
       </c>
       <c r="AU372">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="373" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV372" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -31157,11 +33025,16 @@
       <c r="AT373">
         <v>540.29999999999995</v>
       </c>
-      <c r="AU373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU373" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV373">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -31241,10 +33114,15 @@
         <v>316.7</v>
       </c>
       <c r="AU374">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="375" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV374" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -31324,10 +33202,15 @@
         <v>211.7</v>
       </c>
       <c r="AU375">
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="376" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV375" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -31406,11 +33289,16 @@
       <c r="AT376">
         <v>374.1</v>
       </c>
-      <c r="AU376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU376" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV376">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -31489,11 +33377,16 @@
       <c r="AT377">
         <v>999</v>
       </c>
-      <c r="AU377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU377" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV377">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -31573,10 +33466,15 @@
         <v>502.5</v>
       </c>
       <c r="AU378">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="379" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV378" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -31656,10 +33554,15 @@
         <v>697.4</v>
       </c>
       <c r="AU379">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="380" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV379" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -31739,10 +33642,15 @@
         <v>466.3</v>
       </c>
       <c r="AU380">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="381" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV380" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -31821,11 +33729,16 @@
       <c r="AT381">
         <v>527.20000000000005</v>
       </c>
-      <c r="AU381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU381" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV381">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -31904,11 +33817,16 @@
       <c r="AT382">
         <v>285.3</v>
       </c>
-      <c r="AU382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU382" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV382">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -31987,11 +33905,16 @@
       <c r="AT383">
         <v>402.6</v>
       </c>
-      <c r="AU383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU383" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV383">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -32070,11 +33993,16 @@
       <c r="AT384">
         <v>648.9</v>
       </c>
-      <c r="AU384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU384" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV384">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -32153,11 +34081,16 @@
       <c r="AT385">
         <v>502.1</v>
       </c>
-      <c r="AU385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU385" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV385">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -32236,11 +34169,16 @@
       <c r="AT386">
         <v>999</v>
       </c>
-      <c r="AU386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU386" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV386">
+        <f t="shared" ref="AV386:AV400" si="13">IF(AB386&lt;1,"",AB386)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -32320,10 +34258,15 @@
         <v>64.2</v>
       </c>
       <c r="AU387">
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="388" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV387" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -32402,11 +34345,16 @@
       <c r="AT388">
         <v>999</v>
       </c>
-      <c r="AU388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU388" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV388">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -32485,11 +34433,16 @@
       <c r="AT389">
         <v>299.5</v>
       </c>
-      <c r="AU389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU389" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV389">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -32569,10 +34522,15 @@
         <v>568.5</v>
       </c>
       <c r="AU390">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="391" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV390" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -32652,10 +34610,15 @@
         <v>266.10000000000002</v>
       </c>
       <c r="AU391">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="392" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV391" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -32734,11 +34697,16 @@
       <c r="AT392">
         <v>706.7</v>
       </c>
-      <c r="AU392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU392" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV392">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -32818,10 +34786,15 @@
         <v>78.8</v>
       </c>
       <c r="AU393">
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="394" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV393" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -32900,11 +34873,16 @@
       <c r="AT394">
         <v>701.8</v>
       </c>
-      <c r="AU394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU394" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AV394">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -32983,11 +34961,16 @@
       <c r="AT395">
         <v>999</v>
       </c>
-      <c r="AU395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AU395" t="str">
+        <f t="shared" ref="AU395:AU400" si="14">IF(SUM(AC395,AD395)&lt;1,"",SUM(AC395,AD395))</f>
+        <v/>
+      </c>
+      <c r="AV395">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -33067,10 +35050,15 @@
         <v>47</v>
       </c>
       <c r="AU396">
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="397" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV396" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -33150,10 +35138,15 @@
         <v>121.8</v>
       </c>
       <c r="AU397">
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="398" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV397" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -33233,10 +35226,15 @@
         <v>136.80000000000001</v>
       </c>
       <c r="AU398">
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="399" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV398" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -33316,10 +35314,15 @@
         <v>140.9</v>
       </c>
       <c r="AU399">
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV399" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -33398,8 +35401,13 @@
       <c r="AT400">
         <v>426.5</v>
       </c>
-      <c r="AU400">
-        <v>0</v>
+      <c r="AU400" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AV400">
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/players.xlsx
+++ b/players.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lu516e\source\repos\aflynn0213\FantasyPlayerEvaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aflyn\repos\FantasyPlayerEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE6854-E5E0-4682-B445-DBD2DFAF3BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C3C147-43DF-4077-930B-9B8169EAF832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,19 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">players!$A$1:$AU$400</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2430,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O367" workbookViewId="0">
-      <selection activeCell="AL395" sqref="AL395"/>
+    <sheetView tabSelected="1" topLeftCell="X183" workbookViewId="0">
+      <selection activeCell="AU190" sqref="AU190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,11 +2710,11 @@
         <v>4.5</v>
       </c>
       <c r="AU2" t="str">
-        <f>IF(AND(ISBLANK(AC2),ISBLANK(AD2)),"",SUM(AC2,AD2))</f>
+        <f t="shared" ref="AU2:AU65" si="0">IF(SUM(AC2,AD2)&lt;1,"",SUM(AC2,AD2))</f>
         <v/>
       </c>
       <c r="AV2" t="str">
-        <f t="shared" ref="AV2:AV65" si="0">IF(AB2&lt;1,"",AB2)</f>
+        <f t="shared" ref="AV2:AV65" si="1">IF(AB2&lt;1,"",AB2)</f>
         <v/>
       </c>
     </row>
@@ -2773,11 +2786,11 @@
         <v>4.3</v>
       </c>
       <c r="AU3" t="str">
-        <f t="shared" ref="AU3:AU66" si="1">IF(AND(ISBLANK(AC3),ISBLANK(AD3)),"",SUM(AC3,AD3))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AV3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2849,11 +2862,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AU4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV4" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2925,11 +2938,11 @@
         <v>4</v>
       </c>
       <c r="AU5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV5" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV5" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3001,11 +3014,11 @@
         <v>4</v>
       </c>
       <c r="AU6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV6" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3077,11 +3090,11 @@
         <v>3.9</v>
       </c>
       <c r="AU7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV7" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV7" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3153,11 +3166,11 @@
         <v>3.8</v>
       </c>
       <c r="AU8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV8" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3229,11 +3242,11 @@
         <v>3.7</v>
       </c>
       <c r="AU9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV9" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3305,11 +3318,11 @@
         <v>3.4</v>
       </c>
       <c r="AU10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV10" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3381,11 +3394,11 @@
         <v>3.4</v>
       </c>
       <c r="AU11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV11" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV11" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3457,11 +3470,11 @@
         <v>3.4</v>
       </c>
       <c r="AU12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV12" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV12" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3533,11 +3546,11 @@
         <v>3.3</v>
       </c>
       <c r="AU13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV13" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV13" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3609,11 +3622,11 @@
         <v>3.3</v>
       </c>
       <c r="AU14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV14" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV14" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3685,11 +3698,11 @@
         <v>3.2</v>
       </c>
       <c r="AU15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV15" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV15" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3761,11 +3774,11 @@
         <v>3.2</v>
       </c>
       <c r="AU16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV16" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV16" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3837,11 +3850,11 @@
         <v>3.2</v>
       </c>
       <c r="AU17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV17" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV17" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3913,11 +3926,11 @@
         <v>3.2</v>
       </c>
       <c r="AU18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV18" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV18" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3989,11 +4002,11 @@
         <v>3.1</v>
       </c>
       <c r="AU19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV19" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV19" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4065,11 +4078,11 @@
         <v>3.1</v>
       </c>
       <c r="AU20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV20" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV20" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4141,11 +4154,11 @@
         <v>3.1</v>
       </c>
       <c r="AU21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV21" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV21" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4217,11 +4230,11 @@
         <v>3.1</v>
       </c>
       <c r="AU22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV22" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4293,11 +4306,11 @@
         <v>3</v>
       </c>
       <c r="AU23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV23" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV23" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4369,11 +4382,11 @@
         <v>3</v>
       </c>
       <c r="AU24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV24" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV24" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4445,11 +4458,11 @@
         <v>3</v>
       </c>
       <c r="AU25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV25" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV25" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4521,11 +4534,11 @@
         <v>3</v>
       </c>
       <c r="AU26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV26" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV26" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4597,11 +4610,11 @@
         <v>3</v>
       </c>
       <c r="AU27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV27" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV27" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4673,11 +4686,11 @@
         <v>3</v>
       </c>
       <c r="AU28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV28" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV28" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4749,11 +4762,11 @@
         <v>2.8</v>
       </c>
       <c r="AU29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV29" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV29" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4825,11 +4838,11 @@
         <v>2.8</v>
       </c>
       <c r="AU30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV30" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV30" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4901,11 +4914,11 @@
         <v>2.8</v>
       </c>
       <c r="AU31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV31" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV31" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4977,11 +4990,11 @@
         <v>2.8</v>
       </c>
       <c r="AU32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV32" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV32" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5053,11 +5066,11 @@
         <v>2.7</v>
       </c>
       <c r="AU33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV33" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV33" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5129,11 +5142,11 @@
         <v>2.7</v>
       </c>
       <c r="AU34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV34" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV34" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5205,11 +5218,11 @@
         <v>2.7</v>
       </c>
       <c r="AU35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV35" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV35" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5281,11 +5294,11 @@
         <v>2.6</v>
       </c>
       <c r="AU36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV36" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV36" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5357,11 +5370,11 @@
         <v>2.6</v>
       </c>
       <c r="AU37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV37" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV37" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5433,11 +5446,11 @@
         <v>2.6</v>
       </c>
       <c r="AU38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV38" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV38" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5509,11 +5522,11 @@
         <v>2.5</v>
       </c>
       <c r="AU39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV39" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5585,11 +5598,11 @@
         <v>2.5</v>
       </c>
       <c r="AU40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV40" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV40" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5661,11 +5674,11 @@
         <v>2.4</v>
       </c>
       <c r="AU41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV41" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV41" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5737,11 +5750,11 @@
         <v>2.4</v>
       </c>
       <c r="AU42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV42" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV42" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5813,11 +5826,11 @@
         <v>2.4</v>
       </c>
       <c r="AU43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV43" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV43" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5889,11 +5902,11 @@
         <v>2.4</v>
       </c>
       <c r="AU44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV44" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV44" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5965,11 +5978,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AU45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV45" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV45" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6041,11 +6054,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AU46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV46" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV46" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6117,11 +6130,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AU47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV47" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV47" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6193,11 +6206,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AU48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV48" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6269,11 +6282,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AU49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV49" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV49" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6345,11 +6358,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AU50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV50" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV50" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6421,11 +6434,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AU51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV51" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV51" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6497,11 +6510,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AU52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV52" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV52" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6573,11 +6586,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AU53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV53" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV53" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6649,11 +6662,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AU54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV54" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV54" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6725,11 +6738,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AU55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV55" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV55" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6869,12 +6882,12 @@
       <c r="AT56">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AU56">
+      <c r="AU56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -6946,11 +6959,11 @@
         <v>2.1</v>
       </c>
       <c r="AU57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV57" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV57" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -7022,11 +7035,11 @@
         <v>2.1</v>
       </c>
       <c r="AU58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV58" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV58" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -7098,11 +7111,11 @@
         <v>2.1</v>
       </c>
       <c r="AU59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV59" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV59" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -7174,11 +7187,11 @@
         <v>2.1</v>
       </c>
       <c r="AU60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV60" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV60" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -7250,11 +7263,11 @@
         <v>2.1</v>
       </c>
       <c r="AU61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV61" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV61" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -7326,11 +7339,11 @@
         <v>2</v>
       </c>
       <c r="AU62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV62" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV62" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -7402,11 +7415,11 @@
         <v>2</v>
       </c>
       <c r="AU63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV63" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV63" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -7478,11 +7491,11 @@
         <v>2</v>
       </c>
       <c r="AU64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV64" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV64" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -7554,11 +7567,11 @@
         <v>2</v>
       </c>
       <c r="AU65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV65" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV65" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -7630,11 +7643,11 @@
         <v>2</v>
       </c>
       <c r="AU66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AU66:AU129" si="2">IF(SUM(AC66,AD66)&lt;1,"",SUM(AC66,AD66))</f>
         <v/>
       </c>
       <c r="AV66" t="str">
-        <f t="shared" ref="AV66:AV129" si="2">IF(AB66&lt;1,"",AB66)</f>
+        <f t="shared" ref="AV66:AV129" si="3">IF(AB66&lt;1,"",AB66)</f>
         <v/>
       </c>
     </row>
@@ -7706,11 +7719,11 @@
         <v>1.9</v>
       </c>
       <c r="AU67" t="str">
-        <f t="shared" ref="AU67:AU130" si="3">IF(AND(ISBLANK(AC67),ISBLANK(AD67)),"",SUM(AC67,AD67))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AV67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7782,11 +7795,11 @@
         <v>1.9</v>
       </c>
       <c r="AU68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV68" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV68" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7858,11 +7871,11 @@
         <v>1.9</v>
       </c>
       <c r="AU69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV69" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV69" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7934,11 +7947,11 @@
         <v>1.9</v>
       </c>
       <c r="AU70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV70" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV70" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8010,11 +8023,11 @@
         <v>1.9</v>
       </c>
       <c r="AU71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV71" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV71" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8086,11 +8099,11 @@
         <v>1.9</v>
       </c>
       <c r="AU72" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV72" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV72" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8162,11 +8175,11 @@
         <v>1.9</v>
       </c>
       <c r="AU73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV73" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV73" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8238,11 +8251,11 @@
         <v>1.9</v>
       </c>
       <c r="AU74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV74" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV74" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8314,11 +8327,11 @@
         <v>1.9</v>
       </c>
       <c r="AU75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV75" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV75" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8390,11 +8403,11 @@
         <v>1.9</v>
       </c>
       <c r="AU76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV76" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV76" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8466,11 +8479,11 @@
         <v>1.9</v>
       </c>
       <c r="AU77" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV77" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV77" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8542,11 +8555,11 @@
         <v>1.8</v>
       </c>
       <c r="AU78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV78" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV78" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8618,11 +8631,11 @@
         <v>1.8</v>
       </c>
       <c r="AU79" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV79" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV79" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8694,11 +8707,11 @@
         <v>1.8</v>
       </c>
       <c r="AU80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV80" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV80" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8770,11 +8783,11 @@
         <v>1.8</v>
       </c>
       <c r="AU81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV81" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV81" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8846,11 +8859,11 @@
         <v>1.8</v>
       </c>
       <c r="AU82" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV82" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV82" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8922,11 +8935,11 @@
         <v>1.8</v>
       </c>
       <c r="AU83" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV83" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV83" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8998,11 +9011,11 @@
         <v>1.8</v>
       </c>
       <c r="AU84" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV84" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV84" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9074,11 +9087,11 @@
         <v>1.8</v>
       </c>
       <c r="AU85" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV85" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV85" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9150,11 +9163,11 @@
         <v>1.8</v>
       </c>
       <c r="AU86" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV86" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV86" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9226,11 +9239,11 @@
         <v>1.7</v>
       </c>
       <c r="AU87" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV87" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV87" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9302,11 +9315,11 @@
         <v>1.7</v>
       </c>
       <c r="AU88" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV88" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV88" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9378,11 +9391,11 @@
         <v>1.7</v>
       </c>
       <c r="AU89" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV89" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV89" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9454,11 +9467,11 @@
         <v>1.7</v>
       </c>
       <c r="AU90" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV90" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV90" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9530,11 +9543,11 @@
         <v>1.7</v>
       </c>
       <c r="AU91" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV91" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV91" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9606,11 +9619,11 @@
         <v>1.7</v>
       </c>
       <c r="AU92" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV92" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV92" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9682,11 +9695,11 @@
         <v>1.6</v>
       </c>
       <c r="AU93" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV93" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV93" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9758,11 +9771,11 @@
         <v>1.6</v>
       </c>
       <c r="AU94" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV94" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV94" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9834,11 +9847,11 @@
         <v>1.6</v>
       </c>
       <c r="AU95" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV95" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV95" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9910,11 +9923,11 @@
         <v>1.6</v>
       </c>
       <c r="AU96" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV96" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV96" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9986,11 +9999,11 @@
         <v>1.6</v>
       </c>
       <c r="AU97" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV97" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV97" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10062,11 +10075,11 @@
         <v>1.6</v>
       </c>
       <c r="AU98" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV98" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV98" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10138,11 +10151,11 @@
         <v>1.6</v>
       </c>
       <c r="AU99" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV99" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV99" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10214,11 +10227,11 @@
         <v>1.6</v>
       </c>
       <c r="AU100" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV100" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV100" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10290,11 +10303,11 @@
         <v>1.6</v>
       </c>
       <c r="AU101" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV101" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV101" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10366,11 +10379,11 @@
         <v>1.6</v>
       </c>
       <c r="AU102" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV102" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV102" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10442,11 +10455,11 @@
         <v>1.6</v>
       </c>
       <c r="AU103" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV103" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV103" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10518,11 +10531,11 @@
         <v>1.6</v>
       </c>
       <c r="AU104" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV104" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV104" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10594,11 +10607,11 @@
         <v>1.6</v>
       </c>
       <c r="AU105" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV105" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV105" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10670,11 +10683,11 @@
         <v>1.5</v>
       </c>
       <c r="AU106" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV106" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV106" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10746,11 +10759,11 @@
         <v>1.5</v>
       </c>
       <c r="AU107" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV107" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV107" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10822,11 +10835,11 @@
         <v>1.5</v>
       </c>
       <c r="AU108" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV108" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV108" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10898,11 +10911,11 @@
         <v>1.5</v>
       </c>
       <c r="AU109" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV109" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV109" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10974,11 +10987,11 @@
         <v>1.5</v>
       </c>
       <c r="AU110" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV110" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV110" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11050,11 +11063,11 @@
         <v>1.5</v>
       </c>
       <c r="AU111" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV111" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV111" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11126,11 +11139,11 @@
         <v>1.5</v>
       </c>
       <c r="AU112" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV112" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV112" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11202,11 +11215,11 @@
         <v>1.5</v>
       </c>
       <c r="AU113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV113" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV113" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11278,11 +11291,11 @@
         <v>1.5</v>
       </c>
       <c r="AU114" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV114" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV114" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11354,11 +11367,11 @@
         <v>1.4</v>
       </c>
       <c r="AU115" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV115" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV115" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11430,11 +11443,11 @@
         <v>1.4</v>
       </c>
       <c r="AU116" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV116" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV116" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11506,11 +11519,11 @@
         <v>1.4</v>
       </c>
       <c r="AU117" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV117" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV117" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11582,11 +11595,11 @@
         <v>1.4</v>
       </c>
       <c r="AU118" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV118" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV118" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11658,11 +11671,11 @@
         <v>1.4</v>
       </c>
       <c r="AU119" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV119" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV119" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11734,11 +11747,11 @@
         <v>1.4</v>
       </c>
       <c r="AU120" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV120" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV120" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11810,11 +11823,11 @@
         <v>1.4</v>
       </c>
       <c r="AU121" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV121" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV121" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11886,11 +11899,11 @@
         <v>1.4</v>
       </c>
       <c r="AU122" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV122" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV122" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11962,11 +11975,11 @@
         <v>1.4</v>
       </c>
       <c r="AU123" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV123" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV123" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -12038,11 +12051,11 @@
         <v>1.4</v>
       </c>
       <c r="AU124" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV124" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV124" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -12114,11 +12127,11 @@
         <v>1.4</v>
       </c>
       <c r="AU125" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV125" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV125" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -12190,11 +12203,11 @@
         <v>1.4</v>
       </c>
       <c r="AU126" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV126" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV126" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -12266,11 +12279,11 @@
         <v>1.4</v>
       </c>
       <c r="AU127" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV127" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV127" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -12342,11 +12355,11 @@
         <v>1.4</v>
       </c>
       <c r="AU128" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV128" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV128" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -12418,11 +12431,11 @@
         <v>1.3</v>
       </c>
       <c r="AU129" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV129" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AV129" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -12494,11 +12507,11 @@
         <v>1.3</v>
       </c>
       <c r="AU130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AU130:AU193" si="4">IF(SUM(AC130,AD130)&lt;1,"",SUM(AC130,AD130))</f>
         <v/>
       </c>
       <c r="AV130" t="str">
-        <f t="shared" ref="AV130:AV193" si="4">IF(AB130&lt;1,"",AB130)</f>
+        <f t="shared" ref="AV130:AV193" si="5">IF(AB130&lt;1,"",AB130)</f>
         <v/>
       </c>
     </row>
@@ -12570,11 +12583,11 @@
         <v>1.3</v>
       </c>
       <c r="AU131" t="str">
-        <f t="shared" ref="AU131:AU194" si="5">IF(AND(ISBLANK(AC131),ISBLANK(AD131)),"",SUM(AC131,AD131))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AV131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12646,11 +12659,11 @@
         <v>1.3</v>
       </c>
       <c r="AU132" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV132" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV132" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -12722,11 +12735,11 @@
         <v>1.3</v>
       </c>
       <c r="AU133" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV133" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV133" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -12798,11 +12811,11 @@
         <v>1.3</v>
       </c>
       <c r="AU134" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV134" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV134" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -12874,11 +12887,11 @@
         <v>1.3</v>
       </c>
       <c r="AU135" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV135" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV135" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -12950,11 +12963,11 @@
         <v>1.3</v>
       </c>
       <c r="AU136" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV136" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV136" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13026,11 +13039,11 @@
         <v>1.3</v>
       </c>
       <c r="AU137" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV137" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV137" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13102,11 +13115,11 @@
         <v>1.3</v>
       </c>
       <c r="AU138" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV138" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV138" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13178,11 +13191,11 @@
         <v>1.3</v>
       </c>
       <c r="AU139" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV139" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV139" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13254,11 +13267,11 @@
         <v>1.3</v>
       </c>
       <c r="AU140" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV140" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV140" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13330,11 +13343,11 @@
         <v>1.2</v>
       </c>
       <c r="AU141" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV141" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV141" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13406,11 +13419,11 @@
         <v>1.2</v>
       </c>
       <c r="AU142" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV142" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV142" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13482,11 +13495,11 @@
         <v>1.2</v>
       </c>
       <c r="AU143" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV143" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV143" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13558,11 +13571,11 @@
         <v>1.2</v>
       </c>
       <c r="AU144" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV144" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV144" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13634,11 +13647,11 @@
         <v>1.2</v>
       </c>
       <c r="AU145" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV145" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV145" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13710,11 +13723,11 @@
         <v>1.2</v>
       </c>
       <c r="AU146" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV146" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV146" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13786,11 +13799,11 @@
         <v>1.2</v>
       </c>
       <c r="AU147" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV147" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV147" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13862,11 +13875,11 @@
         <v>1.2</v>
       </c>
       <c r="AU148" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV148" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV148" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13938,11 +13951,11 @@
         <v>1.2</v>
       </c>
       <c r="AU149" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV149" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV149" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14014,11 +14027,11 @@
         <v>1.2</v>
       </c>
       <c r="AU150" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV150" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV150" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14090,11 +14103,11 @@
         <v>1.2</v>
       </c>
       <c r="AU151" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV151" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV151" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14166,11 +14179,11 @@
         <v>1.2</v>
       </c>
       <c r="AU152" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV152" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV152" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14242,11 +14255,11 @@
         <v>1.2</v>
       </c>
       <c r="AU153" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV153" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV153" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14318,11 +14331,11 @@
         <v>1.2</v>
       </c>
       <c r="AU154" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV154" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV154" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14394,11 +14407,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU155" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV155" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV155" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14470,11 +14483,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU156" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV156" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV156" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14546,11 +14559,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU157" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV157" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV157" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14622,11 +14635,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU158" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV158" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV158" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14698,11 +14711,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU159" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV159" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV159" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14774,11 +14787,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV160" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV160" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14850,11 +14863,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU161" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV161" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV161" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14926,11 +14939,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU162" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV162" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV162" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15002,11 +15015,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU163" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV163" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV163" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15078,11 +15091,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU164" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV164" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV164" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15154,11 +15167,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU165" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV165" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV165" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15230,11 +15243,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU166" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV166" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV166" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15306,11 +15319,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU167" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV167" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV167" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15382,11 +15395,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU168" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV168" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV168" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15458,11 +15471,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU169" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV169" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV169" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15534,11 +15547,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU170" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV170" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV170" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15610,11 +15623,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU171" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV171" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV171" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15686,11 +15699,11 @@
         <v>1</v>
       </c>
       <c r="AU172" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV172" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV172" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15762,11 +15775,11 @@
         <v>1</v>
       </c>
       <c r="AU173" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV173" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV173" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15838,11 +15851,11 @@
         <v>1</v>
       </c>
       <c r="AU174" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV174" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV174" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15914,11 +15927,11 @@
         <v>1</v>
       </c>
       <c r="AU175" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV175" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV175" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15990,11 +16003,11 @@
         <v>1</v>
       </c>
       <c r="AU176" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV176" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV176" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16066,11 +16079,11 @@
         <v>1</v>
       </c>
       <c r="AU177" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV177" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV177" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16142,11 +16155,11 @@
         <v>1</v>
       </c>
       <c r="AU178" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV178" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV178" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16218,11 +16231,11 @@
         <v>1</v>
       </c>
       <c r="AU179" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV179" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV179" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16294,11 +16307,11 @@
         <v>1</v>
       </c>
       <c r="AU180" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV180" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV180" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16370,11 +16383,11 @@
         <v>1</v>
       </c>
       <c r="AU181" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV181" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV181" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16446,11 +16459,11 @@
         <v>1</v>
       </c>
       <c r="AU182" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV182" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV182" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16522,11 +16535,11 @@
         <v>1</v>
       </c>
       <c r="AU183" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV183" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV183" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16598,11 +16611,11 @@
         <v>1</v>
       </c>
       <c r="AU184" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV184" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV184" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16674,11 +16687,11 @@
         <v>1</v>
       </c>
       <c r="AU185" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV185" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV185" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16750,11 +16763,11 @@
         <v>1</v>
       </c>
       <c r="AU186" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV186" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV186" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16826,11 +16839,11 @@
         <v>1</v>
       </c>
       <c r="AU187" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV187" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV187" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16902,11 +16915,11 @@
         <v>1</v>
       </c>
       <c r="AU188" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV188" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV188" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16978,11 +16991,11 @@
         <v>0.9</v>
       </c>
       <c r="AU189" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV189" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV189" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -17054,11 +17067,11 @@
         <v>0.9</v>
       </c>
       <c r="AU190" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV190" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV190" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -17130,11 +17143,11 @@
         <v>0.9</v>
       </c>
       <c r="AU191" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV191" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV191" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -17206,11 +17219,11 @@
         <v>0.9</v>
       </c>
       <c r="AU192" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV192" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV192" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -17282,11 +17295,11 @@
         <v>0.9</v>
       </c>
       <c r="AU193" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AV193" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AV193" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -17358,11 +17371,11 @@
         <v>0.9</v>
       </c>
       <c r="AU194" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AU194:AU201" si="6">IF(SUM(AC194,AD194)&lt;1,"",SUM(AC194,AD194))</f>
         <v/>
       </c>
       <c r="AV194" t="str">
-        <f t="shared" ref="AV194:AV257" si="6">IF(AB194&lt;1,"",AB194)</f>
+        <f t="shared" ref="AV194:AV257" si="7">IF(AB194&lt;1,"",AB194)</f>
         <v/>
       </c>
     </row>
@@ -17434,11 +17447,11 @@
         <v>0.9</v>
       </c>
       <c r="AU195" t="str">
-        <f t="shared" ref="AU195:AU258" si="7">IF(AND(ISBLANK(AC195),ISBLANK(AD195)),"",SUM(AC195,AD195))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17510,11 +17523,11 @@
         <v>0.9</v>
       </c>
       <c r="AU196" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV196" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AV196" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17586,11 +17599,11 @@
         <v>0.9</v>
       </c>
       <c r="AU197" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV197" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AV197" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17662,11 +17675,11 @@
         <v>0.9</v>
       </c>
       <c r="AU198" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV198" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AV198" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17738,11 +17751,11 @@
         <v>0.9</v>
       </c>
       <c r="AU199" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV199" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AV199" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17814,11 +17827,11 @@
         <v>0.9</v>
       </c>
       <c r="AU200" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV200" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AV200" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17890,11 +17903,11 @@
         <v>0.9</v>
       </c>
       <c r="AU201" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV201" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AV201" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17982,7 +17995,7 @@
         <v/>
       </c>
       <c r="AV202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
@@ -18070,7 +18083,7 @@
         <v/>
       </c>
       <c r="AV203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -18158,7 +18171,7 @@
         <v/>
       </c>
       <c r="AV204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -18246,7 +18259,7 @@
         <v/>
       </c>
       <c r="AV205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -18334,7 +18347,7 @@
         <v/>
       </c>
       <c r="AV206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -18422,7 +18435,7 @@
         <v/>
       </c>
       <c r="AV207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -18510,7 +18523,7 @@
         <v/>
       </c>
       <c r="AV208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -18598,7 +18611,7 @@
         <v/>
       </c>
       <c r="AV209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -18686,7 +18699,7 @@
         <v/>
       </c>
       <c r="AV210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -18774,7 +18787,7 @@
         <v/>
       </c>
       <c r="AV211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -18862,7 +18875,7 @@
         <v/>
       </c>
       <c r="AV212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
@@ -18950,7 +18963,7 @@
         <v/>
       </c>
       <c r="AV213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -19038,7 +19051,7 @@
         <v/>
       </c>
       <c r="AV214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -19126,7 +19139,7 @@
         <v/>
       </c>
       <c r="AV215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -19214,7 +19227,7 @@
         <v/>
       </c>
       <c r="AV216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -19302,7 +19315,7 @@
         <v/>
       </c>
       <c r="AV217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -19390,7 +19403,7 @@
         <v/>
       </c>
       <c r="AV218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -19478,7 +19491,7 @@
         <v/>
       </c>
       <c r="AV219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -19566,7 +19579,7 @@
         <v/>
       </c>
       <c r="AV220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -19654,7 +19667,7 @@
         <v/>
       </c>
       <c r="AV221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -19742,7 +19755,7 @@
         <v/>
       </c>
       <c r="AV222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -19830,7 +19843,7 @@
         <v/>
       </c>
       <c r="AV223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -19918,7 +19931,7 @@
         <v/>
       </c>
       <c r="AV224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -20006,7 +20019,7 @@
         <v/>
       </c>
       <c r="AV225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -20094,7 +20107,7 @@
         <v/>
       </c>
       <c r="AV226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -20182,7 +20195,7 @@
         <v/>
       </c>
       <c r="AV227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -20270,7 +20283,7 @@
         <v/>
       </c>
       <c r="AV228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -20358,7 +20371,7 @@
         <v/>
       </c>
       <c r="AV229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -20446,7 +20459,7 @@
         <v/>
       </c>
       <c r="AV230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -20534,7 +20547,7 @@
         <v/>
       </c>
       <c r="AV231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -20622,7 +20635,7 @@
         <v/>
       </c>
       <c r="AV232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -20710,7 +20723,7 @@
         <v/>
       </c>
       <c r="AV233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -20798,7 +20811,7 @@
         <v/>
       </c>
       <c r="AV234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -20886,7 +20899,7 @@
         <v/>
       </c>
       <c r="AV235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -20974,7 +20987,7 @@
         <v/>
       </c>
       <c r="AV236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -21062,7 +21075,7 @@
         <v/>
       </c>
       <c r="AV237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -21150,7 +21163,7 @@
         <v/>
       </c>
       <c r="AV238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -21238,7 +21251,7 @@
         <v/>
       </c>
       <c r="AV239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -21326,7 +21339,7 @@
         <v/>
       </c>
       <c r="AV240">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -21414,7 +21427,7 @@
         <v/>
       </c>
       <c r="AV241">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -21502,7 +21515,7 @@
         <v/>
       </c>
       <c r="AV242">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -21590,7 +21603,7 @@
         <v/>
       </c>
       <c r="AV243">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -21678,7 +21691,7 @@
         <v/>
       </c>
       <c r="AV244">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -21766,7 +21779,7 @@
         <v/>
       </c>
       <c r="AV245">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -21854,7 +21867,7 @@
         <v/>
       </c>
       <c r="AV246">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -21942,7 +21955,7 @@
         <v/>
       </c>
       <c r="AV247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
@@ -22030,7 +22043,7 @@
         <v/>
       </c>
       <c r="AV248">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -22118,7 +22131,7 @@
         <v/>
       </c>
       <c r="AV249">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -22206,7 +22219,7 @@
         <v/>
       </c>
       <c r="AV250">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -22294,7 +22307,7 @@
         <v/>
       </c>
       <c r="AV251">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -22382,7 +22395,7 @@
         <v/>
       </c>
       <c r="AV252">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -22470,7 +22483,7 @@
         <v/>
       </c>
       <c r="AV253">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -22558,7 +22571,7 @@
         <v/>
       </c>
       <c r="AV254">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -22646,7 +22659,7 @@
         <v/>
       </c>
       <c r="AV255">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -22734,7 +22747,7 @@
         <v/>
       </c>
       <c r="AV256">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -22822,7 +22835,7 @@
         <v/>
       </c>
       <c r="AV257">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
